--- a/aiurt-module-system/src/main/resources/templates/trainarchiveerror.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/trainarchiveerror.xlsx
@@ -22,12 +22,12 @@
     <t xml:space="preserve">个人培训档案导入模板
 填写须知：
 1.请勿增加、删除、或修改表格中的字段顺序、字段名称；
-2.请严格按照数据规范填写，并填写完所有必填项，灰底黑字列为必填项；
+2.请严格按照数据规范填写，并填写完所有必填项，红底白字列为必填项；
 3.请勿删除表格中填充颜色的字段；
 字段说明：
 1.姓名、工号为必填字段
 2.第一学历、最高学历、岗位变动记录、培训记录这四个模块为非必填
-如填写某个模块，则必须都填写，
+如填写某个模块，则必须将填写的模块里的字段，都填写，
 学历，只能填写：小学、初中、高中、大专、本科、研究生，
 毕业形式，只能填写：统招、非统招，
 毕业时间、上岗时间、培训时间，只能按“2023-06-28”这种格式填写，
@@ -192,7 +192,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,17 +208,48 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="楷体"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="楷体"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -366,7 +397,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,7 +406,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,7 +641,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -615,9 +654,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -648,19 +685,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -710,6 +734,19 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -842,10 +879,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -854,137 +891,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -994,91 +1031,103 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1432,7 +1481,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="A1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1459,7 +1508,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" ht="249" customHeight="1" spans="1:11">
+    <row r="2" ht="237" customHeight="1" spans="1:11">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -1483,281 +1532,281 @@
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="18.75" spans="1:11">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="26" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="K4" s="26"/>
+      <c r="K4" s="30"/>
     </row>
-    <row r="5" ht="14.25" spans="1:11">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:11">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="14"/>
+      <c r="G5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="9" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
     </row>
-    <row r="6" ht="14.25" spans="1:11">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="4" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
     </row>
-    <row r="7" ht="18.75" spans="1:11">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:11">
+      <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="26" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="26"/>
+      <c r="K7" s="30"/>
     </row>
-    <row r="8" ht="14.25" spans="1:11">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="14"/>
+      <c r="G8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="9" t="s">
+      <c r="H8" s="12"/>
+      <c r="I8" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
     </row>
-    <row r="9" ht="14.25" spans="1:11">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:11">
+      <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
     </row>
-    <row r="10" ht="18.75" spans="1:11">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:11">
+      <c r="A10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
     </row>
-    <row r="11" ht="14.25" spans="1:11">
+    <row r="11" spans="1:11">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="17" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20" t="s">
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="17"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="K11" s="4"/>
     </row>
     <row r="12" ht="22" customHeight="1" spans="1:11">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="9" t="s">
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="9" t="s">
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="29" t="s">
+      <c r="I12" s="32"/>
+      <c r="J12" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="30"/>
+      <c r="K12" s="34"/>
     </row>
-    <row r="13" ht="18.75" spans="1:11">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:11">
+      <c r="A13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
     </row>
-    <row r="14" ht="28.5" spans="1:11">
-      <c r="A14" s="4" t="s">
+    <row r="14" ht="24" spans="1:11">
+      <c r="A14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22" t="s">
+      <c r="C14" s="27"/>
+      <c r="D14" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="23" t="s">
+      <c r="F14" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="22" t="s">
+      <c r="H14" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="31"/>
-      <c r="J14" s="4" t="s">
+      <c r="I14" s="35"/>
+      <c r="J14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="K14" s="4"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" s="1" customFormat="1" ht="24" customHeight="1" spans="1:11">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="9"/>
-      <c r="J15" s="25" t="s">
+      <c r="I15" s="13"/>
+      <c r="J15" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="K15" s="25"/>
+      <c r="K15" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="37">
